--- a/biology/Botanique/Habenaria_maitlandii/Habenaria_maitlandii.xlsx
+++ b/biology/Botanique/Habenaria_maitlandii/Habenaria_maitlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria maitlandii Summerh. est une espèce de plantes de la famille des Orchidaceae et du genre Habenaria[2], présente en Afrique tropicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria maitlandii Summerh. est une espèce de plantes de la famille des Orchidaceae et du genre Habenaria, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique maitlandii rend hommage au botaniste britannique Thomas Douglas Maitland qui collecta les premiers spécimens au Cameroun en 1931[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique maitlandii rend hommage au botaniste britannique Thomas Douglas Maitland qui collecta les premiers spécimens au Cameroun en 1931.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria maitlandii est une herbe terrestre d'environ 32 cm de haut avec des fleurs blanches à courts racèmes[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria maitlandii est une herbe terrestre d'environ 32 cm de haut avec des fleurs blanches à courts racèmes
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découverte par Maitland en 1931 à Nchang près de Bamenda (crête d'Ijim), Habenaria maitlandii a longtemps été considérée comme une plante endémique du Cameroun[4]. Dans l'intervalle de nouveaux spécimens ont été trouvés sur d'autres sites, en 1961 au Nigeria, près d'Ibadan, et peut-être en 1999 au Gabon à Pointe Denis, mais l'identification de cette dernière collection reste sujette à caution. L'espèce est néanmoins considérée comme en danger critique d'extinction[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découverte par Maitland en 1931 à Nchang près de Bamenda (crête d'Ijim), Habenaria maitlandii a longtemps été considérée comme une plante endémique du Cameroun. Dans l'intervalle de nouveaux spécimens ont été trouvés sur d'autres sites, en 1961 au Nigeria, près d'Ibadan, et peut-être en 1999 au Gabon à Pointe Denis, mais l'identification de cette dernière collection reste sujette à caution. L'espèce est néanmoins considérée comme en danger critique d'extinction.
 </t>
         </is>
       </c>
